--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,15 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Desktop\Cours\INGE_LOG\INGE_LOG\Agile\Niveau 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Desktop\Cours\INGE_LOG\TPNiv3Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="20490" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil5" sheetId="7" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 1" sheetId="2" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="4" r:id="rId5"/>
+    <sheet name="Feuil3" sheetId="5" r:id="rId6"/>
+    <sheet name="Feuil4" sheetId="6" r:id="rId7"/>
+    <sheet name="Feuil6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -97,6 +103,42 @@
   </si>
   <si>
     <t>Développer le code relatif à la déconnexion</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Développer le code relatif à l'ajout des avions</t>
+  </si>
+  <si>
+    <t>Développer le code relatif à l'ajout des classes d'avions</t>
+  </si>
+  <si>
+    <t>Développer le code permettant l'ajout d'un utilisateur</t>
+  </si>
+  <si>
+    <t>Développer le code permettant la modification d'un utilisateur</t>
+  </si>
+  <si>
+    <t>Développer le code relatif à l'ajout d'un vol</t>
+  </si>
+  <si>
+    <t>Développer le code relatif à l'ajout d'un départ</t>
+  </si>
+  <si>
+    <t>Développer le code relatif à l'ajout d'un passager</t>
+  </si>
+  <si>
+    <t>Reinhard</t>
+  </si>
+  <si>
+    <t>Développer le code relatif à l'association d'un départ à un passager</t>
+  </si>
+  <si>
+    <t>Remi</t>
+  </si>
+  <si>
+    <t>François</t>
   </si>
 </sst>
 </file>
@@ -202,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -234,13 +276,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -249,14 +294,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:L20"/>
+  <dimension ref="B3:L20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +589,7 @@
     <col min="5" max="5" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
@@ -564,7 +603,7 @@
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
@@ -586,7 +625,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -610,7 +649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="C6" s="9">
         <v>1</v>
       </c>
@@ -623,14 +662,26 @@
       <c r="F6" s="10">
         <v>1.5</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="3:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="9">
         <v>5</v>
       </c>
@@ -643,14 +694,26 @@
       <c r="F7" s="4">
         <v>1.5</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="3:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="9">
         <v>3</v>
       </c>
@@ -663,14 +726,29 @@
       <c r="F8" s="4">
         <v>1.75</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="G8" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="9">
         <v>4</v>
       </c>
@@ -683,14 +761,29 @@
       <c r="F9" s="4">
         <v>1.75</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="9">
         <v>6</v>
       </c>
@@ -703,14 +796,29 @@
       <c r="F10" s="11">
         <v>1.75</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="9">
         <v>2</v>
       </c>
@@ -723,14 +831,29 @@
       <c r="F11" s="4">
         <v>1.5</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="3:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="G11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="9">
         <v>7</v>
       </c>
@@ -743,22 +866,34 @@
       <c r="F12" s="4">
         <v>1.5</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -797,10 +932,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L14"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +979,7 @@
       <c r="D2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="14" t="s">
@@ -839,7 +998,7 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="22"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="14"/>
       <c r="G3" s="1">
         <v>1</v>
@@ -861,10 +1020,10 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -886,16 +1045,20 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="2">
         <v>0.3</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -903,61 +1066,85 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="2">
         <v>0.25</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="2">
         <v>0.15</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
+      <c r="B9" s="19">
         <v>2</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -970,97 +1157,1143 @@
         <v>0.3</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="2">
         <v>0.3</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="G10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F11" s="2">
         <v>0.3</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="G11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" s="2">
         <v>0.15</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="G12" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
+      <c r="B13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B4:B8"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L13"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="59.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" customWidth="1"/>
+    <col min="7" max="12" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="60.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
     <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
